--- a/concertation/ig/StructureDefinition-dmi-procedure.xlsx
+++ b/concertation/ig/StructureDefinition-dmi-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-27T10:40:06+00:00</t>
+    <t>2026-02-27T11:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
